--- a/medicine/Enfance/Christine_Adam/Christine_Adam.xlsx
+++ b/medicine/Enfance/Christine_Adam/Christine_Adam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Adam est une illustratrice et enseignante française née en 1952 à Cherbourg[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Adam est une illustratrice et enseignante française née en 1952 à Cherbourg.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Adam a participé à de nombreux ouvrages pour la jeunesse, tant dans le domaine fiction (plusieurs titres chez Folio Junior/Gallimard et chez Casterman, que documentaire chez Hachette Jeunesse. Elle a également œuvré dans le domaine publicitaire, la presse, le film d'animation et le jeu interactif et éducatif[réf. nécessaire].
 Enseignante en illustration et en animation à l’École supérieure d'arts graphiques Penninghen à Paris, Christine Adam développe à présent un univers personnel brodé autour du fil et de la mémoire[réf. nécessaire].
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Chasse au trésor, Nathan, coll. « Je compte de 1 à 12 », 1984.
 Yves Duteil, La Langue de chez nous, Nathan, 1986.
